--- a/Clase de NIvelacion asistencia 5to.xlsx
+++ b/Clase de NIvelacion asistencia 5to.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B373486-7688-4C15-97BB-97C14D4A0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40007764-9273-4DB9-AA22-9646BBCE7770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>CURSO</t>
   </si>
@@ -140,6 +140,9 @@
       </rPr>
       <t xml:space="preserve"> TECNICA TECNOLOGICA PROGRAMACION VISUAL</t>
     </r>
+  </si>
+  <si>
+    <t>No asistio a Ninguna clase de Nivelacion</t>
   </si>
 </sst>
 </file>
@@ -579,31 +582,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -620,6 +604,39 @@
     <xf numFmtId="22" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,20 +655,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,18 +1263,18 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1277,152 +1282,174 @@
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="30">
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="23">
         <v>44440.770833333336</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="24">
         <v>44453.520833333336</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
@@ -1440,21 +1467,21 @@
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="13"/>
@@ -1544,7 +1571,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.82677165354330717" right="3.937007874015748E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
